--- a/slides/report/newStar/images/funding.xlsx
+++ b/slides/report/newStar/images/funding.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\Nutstore\Presentation_slides\slides\report\newStar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D7BF4-5596-4D34-B7DE-AA0ADBAF3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E353BC-3112-4FE4-8D9D-85BE6C38E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2880" windowWidth="43200" windowHeight="11295" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
+    <workbookView xWindow="35565" yWindow="3045" windowWidth="17265" windowHeight="11295" activeTab="1" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="funding" sheetId="1" r:id="rId1"/>
+    <sheet name="publication" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>序号</t>
   </si>
@@ -257,6 +258,54 @@
   </si>
   <si>
     <t>参与</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>发表时间</t>
+  </si>
+  <si>
+    <t>期刊</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>Tai, Y., .red[**Hu, Y.\\***], &amp; Solt, F.</t>
+  </si>
+  <si>
+    <t>American Political Science Review</t>
+  </si>
+  <si>
+    <t>.red[**SSCI A+**], IF: 7.828</t>
+  </si>
+  <si>
+    <t>.red[**Hu, Y.\\***]</t>
+  </si>
+  <si>
+    <t>Political Psychology</t>
+  </si>
+  <si>
+    <t>.red[**SSCI A+**], IF: 4.333</t>
+  </si>
+  <si>
+    <t>大陆一作</t>
+  </si>
+  <si>
+    <t>第1篇（共1篇）</t>
+  </si>
+  <si>
+    <t>Democratization</t>
+  </si>
+  <si>
+    <t>.red[**SSCI A**]，IF: 3.055</t>
+  </si>
+  <si>
+    <t>第7篇(独作第4篇)</t>
+  </si>
+  <si>
+    <t>第2篇（共3篇，独作第2篇）</t>
   </si>
 </sst>
 </file>
@@ -750,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7317AEC8-F17D-4D90-9B9A-F1AB95A23583}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1000,4 +1049,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9C35A6-8E90-4430-9641-80ADBC268013}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>2022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/slides/report/newStar/images/funding.xlsx
+++ b/slides/report/newStar/images/funding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\Nutstore\Presentation_slides\slides\report\newStar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E353BC-3112-4FE4-8D9D-85BE6C38E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC0B2F6-DA78-4962-A502-ED4E46AE5A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35565" yWindow="3045" windowWidth="17265" windowHeight="11295" activeTab="1" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
+    <workbookView xWindow="40335" yWindow="930" windowWidth="17265" windowHeight="11295" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
   </bookViews>
   <sheets>
     <sheet name="funding" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>香港群体身份认同的互动塑造机制研究</t>
   </si>
   <si>
-    <t>清华大学国家高端智库</t>
-  </si>
-  <si>
     <t>2020-11~ 2021-05</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>第2篇（共3篇，独作第2篇）</t>
+  </si>
+  <si>
+    <t>清华大学国家高端智库（重点）</t>
   </si>
 </sst>
 </file>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7317AEC8-F17D-4D90-9B9A-F1AB95A23583}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -853,16 +853,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -870,19 +870,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -890,19 +890,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -910,19 +910,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -930,19 +930,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -950,19 +950,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -990,19 +990,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1010,19 +1010,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1030,19 +1030,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9C35A6-8E90-4430-9641-80ADBC268013}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1063,70 +1063,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>2022</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>2020</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/slides/report/newStar/images/funding.xlsx
+++ b/slides/report/newStar/images/funding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\Nutstore\Presentation_slides\slides\report\newStar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC0B2F6-DA78-4962-A502-ED4E46AE5A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5355FF-B8CC-4EFB-86A4-E282DA1BD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40335" yWindow="930" windowWidth="17265" windowHeight="11295" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
   </bookViews>
   <sheets>
     <sheet name="funding" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -305,7 +305,19 @@
     <t>第2篇（共3篇，独作第2篇）</t>
   </si>
   <si>
-    <t>清华大学国家高端智库（重点）</t>
+    <t>网信工作服务、支撑和保障共同富裕研究</t>
+  </si>
+  <si>
+    <t>2022-04~2022-12</t>
+  </si>
+  <si>
+    <t>10/0</t>
+  </si>
+  <si>
+    <t>国家高端智库（重点）</t>
+  </si>
+  <si>
+    <t>国家高端智库</t>
   </si>
 </sst>
 </file>
@@ -797,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7317AEC8-F17D-4D90-9B9A-F1AB95A23583}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -950,16 +962,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>31</v>
+        <v>69</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>51</v>
@@ -970,56 +982,56 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>51</v>
@@ -1029,19 +1041,39 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
     </row>

--- a/slides/report/newStar/images/funding.xlsx
+++ b/slides/report/newStar/images/funding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\Nutstore\Presentation_slides\slides\report\newStar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5355FF-B8CC-4EFB-86A4-E282DA1BD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980147B-F3F9-463F-915B-64890EE7F3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>序号</t>
   </si>
@@ -74,20 +74,6 @@
     <t>20/20</t>
   </si>
   <si>
-    <r>
-      <t>负责人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-  </si>
-  <si>
     <t>突发公共卫生事件互联网政治生态与话语竞争研究</t>
   </si>
   <si>
@@ -97,20 +83,6 @@
     <t>2020-12~2023-06</t>
   </si>
   <si>
-    <r>
-      <t>负责人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
     <t>新型城镇化进程中身份认同危机与语言治理</t>
   </si>
   <si>
@@ -118,20 +90,6 @@
   </si>
   <si>
     <t>2020-09~2021-08</t>
-  </si>
-  <si>
-    <r>
-      <t>负责人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
   </si>
   <si>
     <t>北京市违法建设专题研究</t>
@@ -218,9 +176,6 @@
   </si>
   <si>
     <t>春风基金</t>
-  </si>
-  <si>
-    <t>负责人1</t>
   </si>
   <si>
     <t>6/6</t>
@@ -318,6 +273,9 @@
   </si>
   <si>
     <t>国家高端智库</t>
+  </si>
+  <si>
+    <t>负责人</t>
   </si>
 </sst>
 </file>
@@ -812,7 +770,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -854,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -865,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -874,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -882,19 +840,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -902,19 +860,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -922,19 +880,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -942,19 +900,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,19 +920,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -982,19 +940,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1002,19 +960,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1022,19 +980,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1042,19 +1000,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1062,19 +1020,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1095,70 +1053,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/slides/report/newStar/images/funding.xlsx
+++ b/slides/report/newStar/images/funding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\Nutstore\Presentation_slides\slides\report\newStar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980147B-F3F9-463F-915B-64890EE7F3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A36B9-82E9-457E-98F1-A70812ABA7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
   </bookViews>
   <sheets>
     <sheet name="funding" sheetId="1" r:id="rId1"/>
@@ -272,10 +272,10 @@
     <t>国家高端智库（重点）</t>
   </si>
   <si>
-    <t>国家高端智库</t>
-  </si>
-  <si>
     <t>负责人</t>
+  </si>
+  <si>
+    <t>中宣部高端智库</t>
   </si>
 </sst>
 </file>
@@ -769,13 +769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7317AEC8-F17D-4D90-9B9A-F1AB95A23583}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="40.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -812,10 +812,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -832,10 +832,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -852,10 +852,10 @@
         <v>43</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -872,10 +872,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -892,10 +892,10 @@
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -912,10 +912,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -923,7 +923,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>65</v>
@@ -935,7 +935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -955,7 +955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="51.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -995,7 +995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="60.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1049,9 +1049,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>55</v>
       </c>

--- a/slides/report/newStar/images/funding.xlsx
+++ b/slides/report/newStar/images/funding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGAsync\Nutstore\Presentation_slides\slides\report\newStar\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A36B9-82E9-457E-98F1-A70812ABA7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83AED41-3D38-4561-84CE-C8CB4DD7D6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{9CCFCCB2-6DA2-4FFF-B873-420485C0C63A}"/>
   </bookViews>
   <sheets>
     <sheet name="funding" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>序号</t>
   </si>
@@ -248,15 +248,6 @@
     <t>第1篇（共1篇）</t>
   </si>
   <si>
-    <t>Democratization</t>
-  </si>
-  <si>
-    <t>.red[**SSCI A**]，IF: 3.055</t>
-  </si>
-  <si>
-    <t>第7篇(独作第4篇)</t>
-  </si>
-  <si>
     <t>第2篇（共3篇，独作第2篇）</t>
   </si>
   <si>
@@ -276,13 +267,19 @@
   </si>
   <si>
     <t>中宣部高端智库</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>160.88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +313,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -767,15 +771,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7317AEC8-F17D-4D90-9B9A-F1AB95A23583}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="39.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="92.25" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -812,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -823,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -832,10 +836,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -852,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -872,10 +876,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41.25" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -892,10 +896,10 @@
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -912,130 +916,143 @@
         <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="60.75" thickBot="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="48.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" ht="60.75" thickBot="1">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" ht="60.75" thickBot="1">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" ht="48.75" thickBot="1">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" ht="72.75" thickBot="1">
       <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="72.75" thickBot="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1043,15 +1060,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9C35A6-8E90-4430-9641-80ADBC268013}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1068,7 +1085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1085,7 +1102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1099,27 +1116,11 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>